--- a/ctdpy/tests/etc/exprapp_feb_2020/ctd_metadata.xlsx
+++ b/ctdpy/tests/etc/exprapp_feb_2020/ctd_metadata.xlsx
@@ -1767,18 +1767,12 @@
     <t>Rapporteringsgräns (fritext)</t>
   </si>
   <si>
-    <t>SBE1044</t>
-  </si>
-  <si>
     <t>Seabird</t>
   </si>
   <si>
     <t>911plus</t>
   </si>
   <si>
-    <t>1044</t>
-  </si>
-  <si>
     <t>2017-11-01</t>
   </si>
   <si>
@@ -2179,6 +2173,12 @@
   </si>
   <si>
     <t>SVEL2_CTD</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>SBE1387</t>
   </si>
 </sst>
 </file>
@@ -2876,10 +2876,45 @@
   <dimension ref="A3:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
@@ -5295,10 +5330,34 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="84.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="2"/>
@@ -5464,40 +5523,40 @@
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="15" t="s">
         <v>576</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>578</v>
       </c>
       <c r="K4" t="s">
         <v>475</v>
       </c>
       <c r="L4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="15"/>
@@ -5508,60 +5567,60 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="K5" t="s">
         <v>583</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>585</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="O5" t="s">
-        <v>587</v>
       </c>
       <c r="P5" s="14">
         <v>1044</v>
       </c>
       <c r="Q5" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="S5" t="s">
         <v>588</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="T5" t="s">
         <v>589</v>
-      </c>
-      <c r="S5" t="s">
-        <v>590</v>
-      </c>
-      <c r="T5" t="s">
-        <v>591</v>
       </c>
       <c r="U5">
         <v>24</v>
@@ -5569,57 +5628,57 @@
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H6" t="s">
+        <v>590</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K6" s="20" t="s">
         <v>593</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>595</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P6" s="14">
         <v>3941</v>
       </c>
       <c r="Q6" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="S6" t="s">
+        <v>596</v>
+      </c>
+      <c r="T6" t="s">
         <v>597</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="S6" t="s">
-        <v>598</v>
-      </c>
-      <c r="T6" t="s">
-        <v>599</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -5627,57 +5686,57 @@
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>602</v>
-      </c>
       <c r="K7" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P7" s="14">
         <v>3943</v>
       </c>
       <c r="Q7" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="S7" t="s">
+        <v>596</v>
+      </c>
+      <c r="T7" t="s">
         <v>597</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="S7" t="s">
-        <v>598</v>
-      </c>
-      <c r="T7" t="s">
-        <v>599</v>
       </c>
       <c r="U7">
         <v>24</v>
@@ -5685,159 +5744,159 @@
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H8" t="s">
+        <v>601</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="K8" t="s">
         <v>604</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M8" t="s">
         <v>605</v>
-      </c>
-      <c r="K8" t="s">
-        <v>606</v>
-      </c>
-      <c r="L8" t="s">
-        <v>579</v>
-      </c>
-      <c r="M8" t="s">
-        <v>607</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="15"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>612</v>
-      </c>
       <c r="K9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="15"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H10" t="s">
+        <v>611</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="K10" s="18" t="s">
         <v>614</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>616</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P10" s="14">
         <v>5351</v>
       </c>
       <c r="Q10" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="T10" t="s">
         <v>619</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="T10" t="s">
-        <v>621</v>
       </c>
       <c r="U10">
         <v>24</v>
@@ -5845,57 +5904,57 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H11" t="s">
+        <v>620</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>624</v>
-      </c>
       <c r="K11" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P11" s="14">
         <v>5355</v>
       </c>
       <c r="Q11" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="S11" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="T11" t="s">
         <v>619</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="T11" t="s">
-        <v>621</v>
       </c>
       <c r="U11">
         <v>24</v>
@@ -5903,57 +5962,57 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H12" t="s">
+        <v>623</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="K12" s="18" t="s">
         <v>626</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>628</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O12" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q12" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="R12" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="S12" t="s">
         <v>631</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="T12" t="s">
         <v>632</v>
-      </c>
-      <c r="S12" t="s">
-        <v>633</v>
-      </c>
-      <c r="T12" t="s">
-        <v>634</v>
       </c>
       <c r="U12">
         <v>24</v>
@@ -5961,57 +6020,57 @@
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H13" t="s">
+        <v>633</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>637</v>
-      </c>
       <c r="K13" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R13" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="S13" t="s">
+        <v>631</v>
+      </c>
+      <c r="T13" t="s">
         <v>632</v>
-      </c>
-      <c r="S13" t="s">
-        <v>633</v>
-      </c>
-      <c r="T13" t="s">
-        <v>634</v>
       </c>
       <c r="U13">
         <v>24</v>
@@ -6019,107 +6078,107 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H14" t="s">
+        <v>638</v>
+      </c>
+      <c r="I14" t="s">
+        <v>639</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" s="18" t="s">
         <v>641</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>643</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P14" s="14">
         <v>70374</v>
       </c>
       <c r="Q14" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="S14" t="s">
         <v>646</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="S14" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H15" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="K15" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="N15" t="s">
         <v>651</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="O15" t="s">
         <v>652</v>
-      </c>
-      <c r="N15" t="s">
-        <v>653</v>
-      </c>
-      <c r="O15" t="s">
-        <v>654</v>
       </c>
       <c r="P15" s="14">
         <v>2288</v>
       </c>
       <c r="Q15" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="S15" t="s">
+        <v>654</v>
+      </c>
+      <c r="T15" t="s">
         <v>655</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="S15" t="s">
-        <v>656</v>
-      </c>
-      <c r="T15" t="s">
-        <v>657</v>
       </c>
       <c r="U15">
         <v>8</v>
@@ -6127,55 +6186,55 @@
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H16" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="K16" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="J16" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>661</v>
-      </c>
       <c r="N16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O16" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P16" s="14">
         <v>2288</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="T16" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U16">
         <v>8</v>
@@ -6183,55 +6242,55 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H17" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="K17" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="N17" t="s">
+        <v>651</v>
+      </c>
+      <c r="O17" t="s">
         <v>666</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="N17" t="s">
-        <v>653</v>
-      </c>
-      <c r="O17" t="s">
-        <v>668</v>
       </c>
       <c r="P17" s="14">
         <v>2290</v>
       </c>
       <c r="Q17" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="S17" t="s">
+        <v>668</v>
+      </c>
+      <c r="T17" t="s">
         <v>669</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="S17" t="s">
-        <v>670</v>
-      </c>
-      <c r="T17" t="s">
-        <v>671</v>
       </c>
       <c r="U17">
         <v>8</v>
@@ -6239,93 +6298,93 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="G18" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H18" t="s">
+        <v>670</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>672</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>674</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>475</v>
       </c>
       <c r="N18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="O18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P18" s="14">
         <v>53447</v>
       </c>
       <c r="Q18" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="S18" t="s">
         <v>677</v>
       </c>
-      <c r="R18" s="14" t="s">
+      <c r="T18" t="s">
         <v>678</v>
-      </c>
-      <c r="S18" t="s">
-        <v>679</v>
-      </c>
-      <c r="T18" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H19" t="s">
+        <v>679</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>681</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>682</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>683</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>498</v>
       </c>
       <c r="L19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="15"/>
@@ -6336,36 +6395,36 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="G20" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H20" t="s">
+        <v>684</v>
+      </c>
+      <c r="I20" t="s">
+        <v>685</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="I20" t="s">
-        <v>687</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>688</v>
       </c>
       <c r="K20" s="13"/>
       <c r="N20" s="16"/>
@@ -6379,38 +6438,38 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="G21" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H21" t="s">
+        <v>687</v>
+      </c>
+      <c r="I21" t="s">
+        <v>688</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>689</v>
-      </c>
-      <c r="I21" t="s">
-        <v>690</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>691</v>
       </c>
       <c r="K21" s="13"/>
       <c r="N21" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="17"/>
@@ -6421,40 +6480,40 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H22" t="s">
+        <v>691</v>
+      </c>
+      <c r="I22" t="s">
+        <v>692</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>693</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="J22" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>696</v>
-      </c>
       <c r="L22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
@@ -6465,45 +6524,45 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="G23" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H23" t="s">
+        <v>696</v>
+      </c>
+      <c r="I23" t="s">
+        <v>697</v>
+      </c>
+      <c r="J23" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="I23" t="s">
-        <v>699</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>700</v>
-      </c>
       <c r="K23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -6514,45 +6573,45 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G24" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H24" t="s">
+        <v>699</v>
+      </c>
+      <c r="I24" t="s">
+        <v>700</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>701</v>
-      </c>
-      <c r="I24" t="s">
-        <v>702</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>498</v>
       </c>
       <c r="L24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
@@ -6563,45 +6622,45 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>575</v>
-      </c>
       <c r="H25" t="s">
+        <v>703</v>
+      </c>
+      <c r="I25" t="s">
+        <v>704</v>
+      </c>
+      <c r="J25" s="19" t="s">
         <v>705</v>
-      </c>
-      <c r="I25" t="s">
-        <v>706</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>707</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>498</v>
       </c>
       <c r="L25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
@@ -6612,7 +6671,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -6650,11 +6709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
